--- a/output/fit_clients/fit_round_74.xlsx
+++ b/output/fit_clients/fit_round_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9180543598.019165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004624196524318292</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.960653758258498</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.943763951779141</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.960653758258498</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5458494425.341879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005176703986051795</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.338730861867544</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8794980474517315</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.338730861867544</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4755462818.770687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002442113860777821</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.006981148864765</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9508008072933541</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.006981148864765</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3227286548.488557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005110809913652499</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.544913333424095</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8290119141536366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.544913333424095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6172094072.506003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00260468868658297</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.394761872762491</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8682712482977735</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.394761872762491</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8056623470.355346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001232542408643399</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.393140966901919</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8940061586250758</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.393140966901919</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4937759312.422197</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003454942958440932</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8687849860854314</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.260935368469525</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.199252229006614</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.260935368469525</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5496544938.791561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004982205406647041</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.795823507313171</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.221310996201929</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.795823507313171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4526275225.336006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005520700315675056</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.530990865350883</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9311263685820158</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.530990865350883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3398078887.499958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001300019399131526</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.369285710215669</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7730923279453538</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.369285710215669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7360738411.502295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001457243505770567</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.020042847256612</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9838094252660158</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.020042847256612</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5845811770.340111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004678721042065361</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.457477679586429</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.019200252479345</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.457477679586429</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7262651154.087788</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002893338121167475</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.91864341328119</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8938028538645216</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.91864341328119</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6847627059.268939</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004413587903652838</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.310413276580479</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9896253760775612</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.310413276580479</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5805943023.322639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004003066796597879</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.996779314756731</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9118450318130138</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.996779314756731</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6411605986.208047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003146823442844706</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.84700653474895</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9339077243626466</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.84700653474895</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5894514948.239968</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001290290907756612</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.879963004308991</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9218385900221575</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.879963004308991</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4077477478.385433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001799792141538116</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.730300681879591</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.912655426720593</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.730300681879591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4027697580.531425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.00117308226578658</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.987001679603825</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8234157793416469</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.987001679603825</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6513078933.973884</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.00492550776281272</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.803864959505369</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8614256153626768</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.803864959505369</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4481196823.91245</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00405802106549206</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.468187295464802</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7748852458572879</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.468187295464802</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7167707731.799026</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001759190686581429</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.244466560521368</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8516979321996003</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.244466560521368</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5419794358.16654</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003856059616911852</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.156772919269376</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9968004722262144</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.156772919269376</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5339664050.571638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002675624708863308</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.250061351762469</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9418035792969793</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.250061351762469</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5012427923.426142</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00116337743204463</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.320764084295081</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8161864572984352</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.320764084295081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7450067121.495599</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003133552009194009</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.748244633613122</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9325180834420717</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.748244633613122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8786624868.390556</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00457928183218366</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.95458075983761</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9118450318130138</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.95458075983761</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5392080097.558519</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001370079166364735</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.033003359116547</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9786216921500939</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.033003359116547</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8279428146.485763</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002725059711716965</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8862681206418515</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.508181420896269</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.145945194101768</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.508181420896269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7848422806.913691</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003071697284017112</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.346382007268667</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.43768394755663</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6511680643147003</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.43768394755663</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3981850506.547424</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001407376388093496</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.011278587875057</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9281408949238507</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.011278587875057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5893096760.671387</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002728469724844769</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.143894078315359</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8477828856794367</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.143894078315359</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7474069666.446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005015764820612974</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.871292022412751</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7483987450030923</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.871292022412751</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4464105534.365032</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001639343156793969</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.718113645191644</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.92043072763587</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.718113645191644</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7589181801.610074</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003840002184036279</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.720798117954048</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.005028271594815</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.720798117954048</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4082074981.614117</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004311289926170561</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4017713975255666</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.7334377506912</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7984027960014281</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.7334377506912</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>2945974246.388729</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003530551457470378</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.556214807506427</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8961793928540076</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.556214807506427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4452881721.753906</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002427137082948048</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.014605435669088</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8534394192020033</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.014605435669088</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5947420524.206362</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004304930076307991</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.750397550478918</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9644251352080423</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.750397550478918</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4973210232.615185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00104739956596213</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.07079964504941</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.92804298703694</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.07079964504941</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6242844384.412163</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003941139801648613</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>15</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4399608862196849</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.535819226347761</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.8174504097604137</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.535819226347761</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5325517491.297697</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004827296614231541</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.843839333271014</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9137702346332226</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.843839333271014</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7378039873.174811</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001568463364357622</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>18</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.544313729159497</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9198247814551563</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.544313729159497</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4718890618.045784</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001045051621290362</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5311099612451221</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.007003324447811</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9028586392257055</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.007003324447811</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10256354590.72378</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003679330242366808</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>15</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7363272188984291</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.663158830742516</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9556749591319675</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.663158830742516</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8969129181.287415</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002630165018062645</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.555192586889782</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.88474649837403</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.555192586889782</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7642629370.258792</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00363870903327419</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.237747915707996</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9461175598692955</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.237747915707996</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4679695179.515081</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.00433964537814095</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.983123269881528</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.496508991950535</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.187802022648056</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.496508991950535</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6974886241.889329</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002678022707981288</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.1852356756299268</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.849547839869396</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.5216225432918548</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.849547839869396</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4508831122.58463</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003922754939288385</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>18</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.491927761535079</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9330117865966703</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.491927761535079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7990754257.865636</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002219652149211527</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7422444510801697</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.752736245057406</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9956734784263658</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.752736245057406</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5201350400.894334</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002723271387471517</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.739242777836805</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9148836841264368</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.739242777836805</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5216238272.349875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004687355225798318</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.480108163406482</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8439500382466942</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.480108163406482</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5638982610.604177</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003969143424917492</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.551174526312824</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8965917616822127</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.551174526312824</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>3997537018.501628</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002983174909866255</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9824530935212848</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.673744669271409</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.229836755394895</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.673744669271409</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6383972470.773559</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003737216701643236</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.595526886266967</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8152801771151429</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.595526886266967</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4607354825.556717</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002145089818629468</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.341014169047504</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8161864572984352</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.341014169047504</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7224044552.733736</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002835371938794974</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.782435264469249</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8953540854297289</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.782435264469249</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4200330071.816603</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00292199995031314</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.516110116832135</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8264422491673947</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.516110116832135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5241096201.419839</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004240806934816502</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.98102607984852</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9206281521110995</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.98102607984852</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4118109719.413543</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00378651172841545</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.219310242526049</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8626066337456915</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.219310242526049</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7224654490.566635</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005645337148308973</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.27137602653034</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8799182339352015</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.27137602653034</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5310645629.98542</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004780811534502947</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.887235006347026</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8926631099117159</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.887235006347026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5512417704.060087</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005684980337009589</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>16</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.010677818099389</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9904638741007804</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.010677818099389</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6642840109.558599</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00365337443323694</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.856406194485067</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9077754071717761</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.856406194485067</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5852887815.698188</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004887765739405409</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
         <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7707291465757855</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.015855745848437</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.040393285998389</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.015855745848437</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5471154302.453962</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002372815086182807</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.355879664732426</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7179748696322518</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.355879664732426</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5611202730.38956</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001131136957313762</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.26259761643466</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.3676073110469039</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.26259761643466</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5973344659.090099</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002741190852079882</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.006415921945724</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8986576348039486</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.006415921945724</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3935514394.690122</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00334410687721565</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.773213684038104</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7889746039856329</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.773213684038104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5495069625.305763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00252027610149926</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.486031253607877</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.02616857830851</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.486031253607877</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5951947804.688625</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.000930132586723143</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.031191952976041</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9572036658017645</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.031191952976041</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6152959939.546437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004373826417629503</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8423075479780778</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.660346346686143</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.091721734892036</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.660346346686143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6334407334.493631</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004445236375683998</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.72114478179172</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8626066337456915</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.72114478179172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7570843470.790394</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002736779081375376</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.3033849918924588</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.57834941938755</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.573531352939162</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.57834941938755</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6138657281.116419</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004872922230823018</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.08942268121064</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9761602869653442</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.08942268121064</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5394436501.898277</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003805623601083666</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.674697304962249</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9119446787408085</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.674697304962249</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7700683642.095033</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001601499371355478</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>11</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.1098588266431437</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.972967381773708</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.229093100448871</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.972967381773708</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5871601293.885962</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002640231672362621</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.786346247378675</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9563295530979005</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.786346247378675</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7223674729.426848</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005208092269844805</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.470757412883152</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9802303943069154</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.470757412883152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5730859018.874594</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004079671242504296</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9013818978146096</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.443500371383128</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.146174258479051</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.443500371383128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>11001574083.65833</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003474166121978203</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.188046389340033</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8067170760721197</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.188046389340033</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5561673906.989514</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005365862709244856</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.462377498648418</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9423888449042881</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.462377498648418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5342806609.774213</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002905632851093807</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.198531147351613</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8745369131468064</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.198531147351613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8616375658.15523</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.00261909527285059</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.823715608016621</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9759677725167097</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.823715608016621</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4032685409.44348</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001626816550179316</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.150760431913624</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9382514321688036</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.150760431913624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7714202901.327739</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005681802400645115</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.571429364161739</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8325787410836272</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.571429364161739</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5172153499.267014</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00425422248624394</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.033302713929762</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9511894964148467</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.033302713929762</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5382403363.122554</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002942855210961076</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>13</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.2870522915349414</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.749554684990168</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.5957763684871454</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.749554684990168</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6088823403.835662</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004660870479841301</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.795051501911137</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8000416656687411</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.795051501911137</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3917987578.215914</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002831318598358023</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.001381987467012</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.0421015230919</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.001381987467012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7842128183.133012</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001348217992582354</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.577367251944922</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9112333763887303</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.577367251944922</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5167854720.536232</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001547363712916805</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.872857855917153</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.993451202724345</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.872857855917153</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6982232220.413337</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002797329957754208</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.983818507184137</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.92364459110202</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.983818507184137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9979199077.2728</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00337501566718244</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>22</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1810386034626893</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.261072660052418</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.2107376636964024</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.261072660052418</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7671231555.057745</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00384264624758528</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.865318275540481</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8831766355977519</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.865318275540481</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8573621990.272129</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004067888013702782</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.636801193714833</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8617491738908729</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.636801193714833</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2587746246.244285</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.006028871584583374</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>17</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.53775342623554</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8890237756117101</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.53775342623554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5939490336.319238</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002373966079322153</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.751916206316831</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8218393297908475</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.751916206316831</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6157010959.391644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001550889031405044</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5749707186949685</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.844776475733894</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8793947239037815</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.844776475733894</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_74.xlsx
+++ b/output/fit_clients/fit_round_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9180543598.019165</v>
+        <v>1582461127.889901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004624196524318292</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18</v>
+        <v>0.0872393508895237</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04244167898699647</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>791230503.3315382</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5458494425.341879</v>
+        <v>2126311320.602891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005176703986051795</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1112375202196339</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0350380878407006</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1063155719.828721</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4755462818.770687</v>
+        <v>5142738717.760411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002442113860777821</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+        <v>0.147347207613247</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02587083467212212</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2571369453.908866</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3227286548.488557</v>
+        <v>3430958675.295034</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005110809913652499</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1055722631960841</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04787008970397024</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1715479378.867418</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6172094072.506003</v>
+        <v>2239146109.084134</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00260468868658297</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1346846015211789</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0564492937523293</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1119573058.169033</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8056623470.355346</v>
+        <v>2295925075.074239</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001232542408643399</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.06355792383510435</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0465576168169872</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1147962570.114416</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4937759312.422197</v>
+        <v>3932230270.807892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003454942958440932</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1567101930967123</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02051860762383049</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1966115288.105521</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5496544938.791561</v>
+        <v>1812192364.753135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004982205406647041</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1305097943902002</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03574046184144045</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>906096234.9276099</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4526275225.336006</v>
+        <v>5732483290.090363</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005520700315675056</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1441007995243882</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04513588036001162</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2866241800.972858</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3398078887.499958</v>
+        <v>2838286249.168957</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001300019399131526</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1722761190298906</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03631592793881679</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1419143056.118686</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7360738411.502295</v>
+        <v>2780770013.901881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001457243505770567</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1577476667463745</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05093367399755475</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>20</v>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1390385004.79273</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5845811770.340111</v>
+        <v>4783145504.784407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004678721042065361</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.06473381496273346</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0252263041896532</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2391572767.44777</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7262651154.087788</v>
+        <v>2400866345.685598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002893338121167475</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17</v>
+        <v>0.1422973775291732</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03092904837012439</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1200433250.543161</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6847627059.268939</v>
+        <v>1592067572.92025</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004413587903652838</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.09368146945188567</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03164670406929811</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>796033892.73882</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5805943023.322639</v>
+        <v>2190579052.83517</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004003066796597879</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.08728602201328207</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03726723040063198</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1095289584.793648</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6411605986.208047</v>
+        <v>3220147573.97058</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003146823442844706</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1095801759216231</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04311236143691802</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1610073860.042341</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5894514948.239968</v>
+        <v>3638927367.011561</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001290290907756612</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>20</v>
+        <v>0.13422260555938</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02617813652815797</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1819463667.422616</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4077477478.385433</v>
+        <v>1347000467.645376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001799792141538116</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.188655515073586</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01840875204500919</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>673500347.4568464</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4027697580.531425</v>
+        <v>2649663070.06042</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00117308226578658</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1209743607430486</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02417680753388755</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1324831492.080036</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6513078933.973884</v>
+        <v>1671922629.322633</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00492550776281272</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14</v>
+        <v>0.06677529908582594</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03264067127775053</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>835961381.8876652</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4481196823.91245</v>
+        <v>3829204634.004508</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00405802106549206</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1116051693658536</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03694484739579056</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1914602328.77989</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7167707731.799026</v>
+        <v>1120054028.68115</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001759190686581429</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14</v>
+        <v>0.1565507549198009</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04183674336468438</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>560027064.1961316</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5419794358.16654</v>
+        <v>3246885685.372929</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003856059616911852</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.09889460476500282</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02856148627813142</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1623442861.238483</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5339664050.571638</v>
+        <v>1386053870.347194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002675624708863308</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>0.1228095750502608</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02840705081637545</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>693026910.2442077</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5012427923.426142</v>
+        <v>1351195714.645658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00116337743204463</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1131355360398815</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03425851155117683</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>675597915.2717258</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7450067121.495599</v>
+        <v>3016516142.178598</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003133552009194009</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1040242367872729</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0229554718532136</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>20</v>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1508258129.998713</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8786624868.390556</v>
+        <v>2962349985.175465</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00457928183218366</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.1405412837937696</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04923386231928946</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>18</v>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1481175000.43063</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5392080097.558519</v>
+        <v>5592131117.913933</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001370079166364735</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.1084996774781431</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03896566860649777</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>34</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2796065465.393958</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8279428146.485763</v>
+        <v>1671910723.106318</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002725059711716965</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>24</v>
+        <v>0.1268869883122323</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03647658353482834</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>835955361.551809</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7848422806.913691</v>
+        <v>1019578509.412695</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003071697284017112</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
+        <v>0.1075368439432133</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03949701014063723</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>509789248.535001</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3981850506.547424</v>
+        <v>1804964337.91354</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001407376388093496</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07399834416987144</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0281463634408093</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>902482300.3590732</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5893096760.671387</v>
+        <v>1991188862.28495</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002728469724844769</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1616231129655313</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05989963830428153</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>995594512.5898534</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7474069666.446</v>
+        <v>1137154182.986176</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005015764820612974</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>22</v>
+        <v>0.08360149345128794</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02156983362694715</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>568577106.756148</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4464105534.365032</v>
+        <v>1354710250.792962</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001639343156793969</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>19</v>
+        <v>0.1063229612082221</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04120179309576164</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>677355066.0874459</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3045422145.48032</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.137402170171332</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01863496344059874</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7589181801.610074</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.003840002184036279</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>21</v>
+      <c r="I36" t="n">
+        <v>18</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1522711050.931679</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4082074981.614117</v>
+        <v>1833177683.942672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004311289926170561</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08569247773282331</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03440730627212141</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>916588846.207806</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2945974246.388729</v>
+        <v>1339219527.721713</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003530551457470378</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1111986250908333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02584527632422484</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>669609835.7233918</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4452881721.753906</v>
+        <v>1407649760.231406</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002427137082948048</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>11</v>
+        <v>0.1622554044232402</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02014288303812594</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>703824964.4950306</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5947420524.206362</v>
+        <v>1385575931.587608</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004304930076307991</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>20</v>
+        <v>0.1158904487347955</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05239477318112892</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>692787960.5600801</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4973210232.615185</v>
+        <v>2868766850.152948</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00104739956596213</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21</v>
+        <v>0.1165039014694005</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03009931336550229</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1434383414.196304</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6242844384.412163</v>
+        <v>4345192241.500523</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003941139801648613</v>
-      </c>
-      <c r="G42" t="b">
+        <v>0.1026539297587289</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0402309933237705</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>18</v>
+      <c r="I42" t="n">
+        <v>24</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2172596173.705523</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5325517491.297697</v>
+        <v>2093879966.003456</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004827296614231541</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1859013157544288</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01644555952782358</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1046940072.409983</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7378039873.174811</v>
+        <v>1963925458.48942</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001568463364357622</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>20</v>
+        <v>0.08162599148939216</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03627424341369034</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>981962828.2945974</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4718890618.045784</v>
+        <v>1536580615.590222</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001045051621290362</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1620870955748153</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05238311236789162</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>768290251.8851568</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10256354590.72378</v>
+        <v>5014937595.551112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003679330242366808</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
+        <v>0.1286944716231823</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05930521832169965</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2507468825.332623</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8969129181.287415</v>
+        <v>4194147732.318583</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002630165018062645</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
+        <v>0.1913048175026612</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03971750263922673</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2097073876.194313</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7642629370.258792</v>
+        <v>3540306528.872209</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00363870903327419</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>13</v>
+        <v>0.06994526696011753</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02779478776899784</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1770153325.454823</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4679695179.515081</v>
+        <v>1811440912.344429</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00433964537814095</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1385313057548571</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03329589382761666</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>905720439.668883</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6974886241.889329</v>
+        <v>3224792703.29413</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002678022707981288</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.14807810205486</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03870452322276828</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1612396395.391111</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4508831122.58463</v>
+        <v>1198095561.838952</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003922754939288385</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1467656539842778</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03850330604232916</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>599047832.7012703</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7990754257.865636</v>
+        <v>3227550981.437368</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002219652149211527</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>18</v>
+        <v>0.1262061490362928</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0536608566158784</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1613775592.568563</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5201350400.894334</v>
+        <v>3102468482.819671</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002723271387471517</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14</v>
+        <v>0.1320332702723282</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03178672213572409</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1551234266.688594</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5216238272.349875</v>
+        <v>4859077421.090131</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004687355225798318</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>19</v>
+        <v>0.1195301990921108</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04864101878971388</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2429538841.953185</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5638982610.604177</v>
+        <v>3827000905.953736</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003969143424917492</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>23</v>
+        <v>0.162414409921052</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03204823705789243</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1913500420.138184</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>3997537018.501628</v>
+        <v>1157629530.243834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002983174909866255</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1036296517811407</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03809789693533681</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>578814857.9582477</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6383972470.773559</v>
+        <v>4183569801.427352</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003737216701643236</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1834867212873076</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02408693384231518</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2091785004.393245</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4607354825.556717</v>
+        <v>1506305273.232734</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002145089818629468</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1980950895711173</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02546726241794845</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>753152667.0960903</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7224044552.733736</v>
+        <v>3702098139.543127</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002835371938794974</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
+        <v>0.1214042803332669</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04108034336875888</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1851049060.004349</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4200330071.816603</v>
+        <v>3773347322.264437</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00292199995031314</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1846346124101581</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02062852232781025</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1886673812.473992</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5241096201.419839</v>
+        <v>2552284905.193671</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004240806934816502</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1163413155270917</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0287812916737856</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1276142475.191822</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4118109719.413543</v>
+        <v>1607818544.706108</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00378651172841545</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1598972397877104</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03881514676867587</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>803909271.4905875</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7224654490.566635</v>
+        <v>4179546798.979333</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005645337148308973</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>17</v>
+        <v>0.09434108167800732</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03714910261954224</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2089773453.766786</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5310645629.98542</v>
+        <v>5367398747.204505</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004780811534502947</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1563995444780868</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03059941423655169</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2683699505.546117</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5512417704.060087</v>
+        <v>4391924666.125252</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005684980337009589</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>18</v>
+        <v>0.1399346134180127</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02390537109019729</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2195962328.157425</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6642840109.558599</v>
+        <v>4403724079.566647</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00365337443323694</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>16</v>
+        <v>0.102068769908963</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04631245103018419</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2201862034.890526</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5852887815.698188</v>
+        <v>2806885895.535213</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004887765739405409</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>12</v>
+        <v>0.0687615681752539</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03639122612388739</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1403442982.306293</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5471154302.453962</v>
+        <v>3735804006.882801</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002372815086182807</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
+        <v>0.1440469521031401</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04912266305945723</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1867901983.127285</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5611202730.38956</v>
+        <v>2336571874.342527</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001131136957313762</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1271460763566323</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04570569194853316</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1168285985.548419</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5973344659.090099</v>
+        <v>2897727497.514467</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002741190852079882</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.071902648734977</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04349925244181105</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1448863719.051083</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3935514394.690122</v>
+        <v>3958364554.338398</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00334410687721565</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1294413018136722</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02749078993003161</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1979182305.019725</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5495069625.305763</v>
+        <v>1592768775.855498</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00252027610149926</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15</v>
+        <v>0.1035671385004321</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0322334818767193</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>796384399.8682375</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5951947804.688625</v>
+        <v>2530016837.918741</v>
       </c>
       <c r="F73" t="n">
-        <v>0.000930132586723143</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>17</v>
+        <v>0.1005399905558475</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03349195165156038</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1265008457.879153</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6152959939.546437</v>
+        <v>2646602829.662113</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004373826417629503</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16</v>
+        <v>0.1176992927627841</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02831665380903645</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1323301510.691315</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6334407334.493631</v>
+        <v>2179912543.739112</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004445236375683998</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>14</v>
+        <v>0.1448821081551298</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02759949407280247</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1089956219.130203</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7570843470.790394</v>
+        <v>4246188343.680659</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002736779081375376</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15</v>
+        <v>0.09642346968732235</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03240364730287955</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2123094166.798624</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6138657281.116419</v>
+        <v>2013760665.166622</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004872922230823018</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28</v>
+        <v>0.1644549276887044</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02604782131198786</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1006880396.018171</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5394436501.898277</v>
+        <v>3390909769.452034</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003805623601083666</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1088633734989111</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04378219398337912</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1695454893.967255</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7700683642.095033</v>
+        <v>1793342012.632342</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001601499371355478</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1181546925727748</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03882909208538878</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>896671091.7432008</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5871601293.885962</v>
+        <v>4155890577.108996</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002640231672362621</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>27</v>
+        <v>0.08813656778058357</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02725077811198731</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2077945295.688525</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7223674729.426848</v>
+        <v>3910734083.428102</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005208092269844805</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1251786937537068</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02188914316893324</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1955367001.460157</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5730859018.874594</v>
+        <v>3438415071.810301</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004079671242504296</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1505012854505499</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02642422839967062</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1719207606.945191</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>11001574083.65833</v>
+        <v>1828070890.344264</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003474166121978203</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.155899618258875</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03913908334981779</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>914035409.0145082</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5561673906.989514</v>
+        <v>2087343742.376924</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005365862709244856</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.07475144374875868</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03284876741121415</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1043671863.302582</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5342806609.774213</v>
+        <v>2271842142.582493</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002905632851093807</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1786797222497003</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05413400264478508</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1135921050.951424</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8616375658.15523</v>
+        <v>2048410132.624038</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00261909527285059</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1206624552075861</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01954043296796809</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1024205100.548946</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4032685409.44348</v>
+        <v>1363030781.883132</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001626816550179316</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1894330891871414</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03930435252402471</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>681515488.2311709</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7714202901.327739</v>
+        <v>3019782190.496995</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005681802400645115</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.170423926404738</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02564116170634249</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1509891127.545641</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5172153499.267014</v>
+        <v>2122801605.043164</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00425422248624394</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16</v>
+        <v>0.1338104249662324</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0332319689432265</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1061400904.829663</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5382403363.122554</v>
+        <v>1992684076.184328</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002942855210961076</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.09354402417503284</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05607020846260693</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>996342106.8787261</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6088823403.835662</v>
+        <v>1365191509.002867</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004660870479841301</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>22</v>
+        <v>0.1190622643407202</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05511255569727014</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>682595811.2681148</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3917987578.215914</v>
+        <v>2290458028.502332</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002831318598358023</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1042429067969528</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0384779348081204</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1145228982.272618</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7842128183.133012</v>
+        <v>5007841378.94965</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001348217992582354</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.0998040553623383</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03327308468493825</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2503920624.847766</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5167854720.536232</v>
+        <v>2255964846.235929</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001547363712916805</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>23</v>
+        <v>0.1644973578670539</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02919207286878981</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1127982454.690957</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6982232220.413337</v>
+        <v>2355917011.517955</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002797329957754208</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>18</v>
+        <v>0.1263468097540698</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05144755561725619</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1177958552.239098</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9979199077.2728</v>
+        <v>1932733651.361165</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00337501566718244</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>19</v>
+        <v>0.1366352676058258</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04404858151764911</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>966366819.7444082</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7671231555.057745</v>
+        <v>4771224355.468805</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00384264624758528</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>19</v>
+        <v>0.1500407774272009</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02212187460483459</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2385612296.048761</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8573621990.272129</v>
+        <v>3936721396.105348</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004067888013702782</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>28</v>
+        <v>0.1162565195902508</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03182557113907067</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1968360746.156515</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2587746246.244285</v>
+        <v>2391136927.041923</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006028871584583374</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09750985319295467</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02817992867585076</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1195568405.247624</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5939490336.319238</v>
+        <v>4246131479.240551</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002373966079322153</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1752505881017045</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0244611422716229</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2123065829.821154</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6157010959.391644</v>
+        <v>3492678617.75639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001550889031405044</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>24</v>
+        <v>0.2168184066200753</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03931532319035926</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1746339462.981194</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_74.xlsx
+++ b/output/fit_clients/fit_round_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1582461127.889901</v>
+        <v>2024837427.250217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0872393508895237</v>
+        <v>0.09412577765765032</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04244167898699647</v>
+        <v>0.02995927713170906</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>791230503.3315382</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2126311320.602891</v>
+        <v>2355030247.019138</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1112375202196339</v>
+        <v>0.1391862552396328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0350380878407006</v>
+        <v>0.0379927241565906</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1063155719.828721</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5142738717.760411</v>
+        <v>3831400866.487614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.147347207613247</v>
+        <v>0.123065504951857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02587083467212212</v>
+        <v>0.02420054505528228</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2571369453.908866</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3430958675.295034</v>
+        <v>3412657430.529426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1055722631960841</v>
+        <v>0.07759463043435685</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04787008970397024</v>
+        <v>0.03932202437986765</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1715479378.867418</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2239146109.084134</v>
+        <v>1972238941.162512</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1346846015211789</v>
+        <v>0.1235570581263236</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0564492937523293</v>
+        <v>0.05497831437246513</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1119573058.169033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2295925075.074239</v>
+        <v>2186286678.302148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06355792383510435</v>
+        <v>0.08241796004625629</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0465576168169872</v>
+        <v>0.0299292229472968</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1147962570.114416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3932230270.807892</v>
+        <v>2640297527.747862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1567101930967123</v>
+        <v>0.195194284056638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02051860762383049</v>
+        <v>0.02945505883007098</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1966115288.105521</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1812192364.753135</v>
+        <v>1410731030.441311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1305097943902002</v>
+        <v>0.1503158678833336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03574046184144045</v>
+        <v>0.03187430805606842</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>906096234.9276099</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5732483290.090363</v>
+        <v>4415806111.375518</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1441007995243882</v>
+        <v>0.1509912460677198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04513588036001162</v>
+        <v>0.03478117796234816</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>31</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2866241800.972858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2838286249.168957</v>
+        <v>2891553782.290128</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1722761190298906</v>
+        <v>0.1415099141054118</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03631592793881679</v>
+        <v>0.04452250983085258</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1419143056.118686</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2780770013.901881</v>
+        <v>2859136383.177714</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1577476667463745</v>
+        <v>0.1788817838483558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05093367399755475</v>
+        <v>0.0343291601346686</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1390385004.79273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4783145504.784407</v>
+        <v>5334932569.290601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06473381496273346</v>
+        <v>0.06531488243812088</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0252263041896532</v>
+        <v>0.0308839348240078</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2391572767.44777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2400866345.685598</v>
+        <v>3382489697.931636</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1422973775291732</v>
+        <v>0.1557960801730582</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03092904837012439</v>
+        <v>0.04375583875414782</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>24</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1200433250.543161</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1592067572.92025</v>
+        <v>1700431030.415257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09368146945188567</v>
+        <v>0.07757781948564955</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03164670406929811</v>
+        <v>0.03592872576373166</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>796033892.73882</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2190579052.83517</v>
+        <v>2734966924.639862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08728602201328207</v>
+        <v>0.09472863242767816</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03726723040063198</v>
+        <v>0.04999804934856088</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1095289584.793648</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3220147573.97058</v>
+        <v>4692110327.35605</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1095801759216231</v>
+        <v>0.1667404478825456</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04311236143691802</v>
+        <v>0.03684008587641695</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1610073860.042341</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3638927367.011561</v>
+        <v>3614461282.91299</v>
       </c>
       <c r="F18" t="n">
-        <v>0.13422260555938</v>
+        <v>0.1288956361141906</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02617813652815797</v>
+        <v>0.02238975608709505</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>24</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1819463667.422616</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1347000467.645376</v>
+        <v>1008432952.957601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.188655515073586</v>
+        <v>0.1319476687848576</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01840875204500919</v>
+        <v>0.01747815817137261</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>673500347.4568464</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2649663070.06042</v>
+        <v>2798795188.742155</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1209743607430486</v>
+        <v>0.1477146800100064</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02417680753388755</v>
+        <v>0.02292461120174442</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1324831492.080036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1671922629.322633</v>
+        <v>2479274827.7291</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06677529908582594</v>
+        <v>0.06330344666713028</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03264067127775053</v>
+        <v>0.02969098867556346</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>835961381.8876652</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3829204634.004508</v>
+        <v>2711890156.770639</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1116051693658536</v>
+        <v>0.1390651387096709</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03694484739579056</v>
+        <v>0.04147800081800709</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1914602328.77989</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1120054028.68115</v>
+        <v>968193888.0305055</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1565507549198009</v>
+        <v>0.1237318960314734</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04183674336468438</v>
+        <v>0.05235615146874877</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>560027064.1961316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3246885685.372929</v>
+        <v>2935068189.63546</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09889460476500282</v>
+        <v>0.09570675603882328</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02856148627813142</v>
+        <v>0.02285922402352022</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1623442861.238483</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1386053870.347194</v>
+        <v>975846702.5856212</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1228095750502608</v>
+        <v>0.08624908663770502</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02840705081637545</v>
+        <v>0.01955440026910968</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>693026910.2442077</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1351195714.645658</v>
+        <v>1430527391.289958</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1131355360398815</v>
+        <v>0.08008348870640375</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03425851155117683</v>
+        <v>0.02760132218871877</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>675597915.2717258</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3016516142.178598</v>
+        <v>4148892858.353953</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1040242367872729</v>
+        <v>0.1475635611833086</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0229554718532136</v>
+        <v>0.02618274952209244</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1508258129.998713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2962349985.175465</v>
+        <v>3165023952.205612</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1405412837937696</v>
+        <v>0.1388170774598577</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04923386231928946</v>
+        <v>0.04900052353722115</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>24</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1481175000.43063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5592131117.913933</v>
+        <v>4067962695.350007</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1084996774781431</v>
+        <v>0.1048264847355308</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03896566860649777</v>
+        <v>0.0308244307579092</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>34</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2796065465.393958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1671910723.106318</v>
+        <v>1932334407.410491</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1268869883122323</v>
+        <v>0.085128065042025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03647658353482834</v>
+        <v>0.03784954763336999</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>835955361.551809</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019578509.412695</v>
+        <v>1097227657.101278</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1075368439432133</v>
+        <v>0.1057215784885393</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03949701014063723</v>
+        <v>0.03413666499809933</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>509789248.535001</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1804964337.91354</v>
+        <v>1872207070.480369</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07399834416987144</v>
+        <v>0.0997088469812495</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0281463634408093</v>
+        <v>0.02396763187472052</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>902482300.3590732</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1991188862.28495</v>
+        <v>2963124435.752085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1616231129655313</v>
+        <v>0.1302531970477381</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05989963830428153</v>
+        <v>0.04574508880439319</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>21</v>
-      </c>
-      <c r="J33" t="n">
-        <v>995594512.5898534</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1137154182.986176</v>
+        <v>1479171416.394699</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08360149345128794</v>
+        <v>0.1016593927797822</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02156983362694715</v>
+        <v>0.01858234423141327</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>568577106.756148</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1354710250.792962</v>
+        <v>919575480.315506</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063229612082221</v>
+        <v>0.08990248580580509</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04120179309576164</v>
+        <v>0.04049498918637558</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>677355066.0874459</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3045422145.48032</v>
+        <v>2205303305.936431</v>
       </c>
       <c r="F36" t="n">
-        <v>0.137402170171332</v>
+        <v>0.1545520630272505</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01863496344059874</v>
+        <v>0.01986267469872636</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1522711050.931679</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1833177683.942672</v>
+        <v>2535570886.214352</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08569247773282331</v>
+        <v>0.09588793673142061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03440730627212141</v>
+        <v>0.03450262858678151</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>916588846.207806</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1339219527.721713</v>
+        <v>1412533173.500399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1111986250908333</v>
+        <v>0.0871553282310846</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02584527632422484</v>
+        <v>0.02777472259206358</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>669609835.7233918</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1407649760.231406</v>
+        <v>1814348476.547298</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1622554044232402</v>
+        <v>0.1498492482148452</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02014288303812594</v>
+        <v>0.02013183125837962</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>703824964.4950306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1385575931.587608</v>
+        <v>1349405220.949803</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1158904487347955</v>
+        <v>0.1145343193185524</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05239477318112892</v>
+        <v>0.04739167744361972</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>692787960.5600801</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2868766850.152948</v>
+        <v>2253374088.277474</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1165039014694005</v>
+        <v>0.1192225966992487</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03009931336550229</v>
+        <v>0.03210897961502946</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>18</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1434383414.196304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4345192241.500523</v>
+        <v>2817212710.69306</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026539297587289</v>
+        <v>0.09734993481214911</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0402309933237705</v>
+        <v>0.04379454876969643</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>24</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2172596173.705523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2093879966.003456</v>
+        <v>1892518656.408794</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1859013157544288</v>
+        <v>0.1487902603309459</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01644555952782358</v>
+        <v>0.02316888941208795</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1046940072.409983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1963925458.48942</v>
+        <v>2078745194.021055</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08162599148939216</v>
+        <v>0.09635956090003225</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03627424341369034</v>
+        <v>0.03415723518191046</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>981962828.2945974</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1536580615.590222</v>
+        <v>1879473860.302397</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1620870955748153</v>
+        <v>0.1551133297588464</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05238311236789162</v>
+        <v>0.03505624332885902</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>768290251.8851568</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5014937595.551112</v>
+        <v>4245155187.871292</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1286944716231823</v>
+        <v>0.1776619294875096</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05930521832169965</v>
+        <v>0.06024539499195508</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>26</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2507468825.332623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4194147732.318583</v>
+        <v>4216715812.767884</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1913048175026612</v>
+        <v>0.196127925873837</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03971750263922673</v>
+        <v>0.04147091215910702</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2097073876.194313</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3540306528.872209</v>
+        <v>4267401802.883951</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06994526696011753</v>
+        <v>0.07966712127354536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02779478776899784</v>
+        <v>0.0314691616912665</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1770153325.454823</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1811440912.344429</v>
+        <v>1237170779.902668</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1385313057548571</v>
+        <v>0.1598347467009603</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03329589382761666</v>
+        <v>0.03245262365854693</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>905720439.668883</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3224792703.29413</v>
+        <v>3975760461.613235</v>
       </c>
       <c r="F50" t="n">
-        <v>0.14807810205486</v>
+        <v>0.1707794118678573</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03870452322276828</v>
+        <v>0.03391107272948703</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1612396395.391111</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198095561.838952</v>
+        <v>939814084.0699011</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1467656539842778</v>
+        <v>0.1340181410144691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03850330604232916</v>
+        <v>0.03505435960930592</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>599047832.7012703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3227550981.437368</v>
+        <v>4950214662.966714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1262061490362928</v>
+        <v>0.08415915779763962</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0536608566158784</v>
+        <v>0.05094205899554468</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>31</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1613775592.568563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3102468482.819671</v>
+        <v>3049597865.859425</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1320332702723282</v>
+        <v>0.170240642582638</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03178672213572409</v>
+        <v>0.02989073891971587</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>21</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1551234266.688594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4859077421.090131</v>
+        <v>3029658068.364182</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1195301990921108</v>
+        <v>0.136092756227041</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04864101878971388</v>
+        <v>0.04727058885614714</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2429538841.953185</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3827000905.953736</v>
+        <v>4655566708.67445</v>
       </c>
       <c r="F55" t="n">
-        <v>0.162414409921052</v>
+        <v>0.1356065672386383</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03204823705789243</v>
+        <v>0.03160833666466011</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1913500420.138184</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1157629530.243834</v>
+        <v>1432728388.801237</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1036296517811407</v>
+        <v>0.164317991149003</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03809789693533681</v>
+        <v>0.04375151414638499</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>578814857.9582477</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4183569801.427352</v>
+        <v>3556637550.188221</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1834867212873076</v>
+        <v>0.1521505343053504</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02408693384231518</v>
+        <v>0.02682322117303422</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>23</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2091785004.393245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1506305273.232734</v>
+        <v>1533009629.901197</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1980950895711173</v>
+        <v>0.1612435451469404</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02546726241794845</v>
+        <v>0.03984175427506114</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>753152667.0960903</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3702098139.543127</v>
+        <v>4256884773.039424</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1214042803332669</v>
+        <v>0.1176935104188</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04108034336875888</v>
+        <v>0.03497816589123035</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1851049060.004349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3773347322.264437</v>
+        <v>3552283785.733326</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1846346124101581</v>
+        <v>0.1369695632978796</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02062852232781025</v>
+        <v>0.02312841923331114</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1886673812.473992</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2552284905.193671</v>
+        <v>3122979812.85697</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1163413155270917</v>
+        <v>0.17823468986651</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0287812916737856</v>
+        <v>0.02382223608728878</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1276142475.191822</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1607818544.706108</v>
+        <v>1854792804.66025</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1598972397877104</v>
+        <v>0.1621862933475897</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03881514676867587</v>
+        <v>0.04634830374343892</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>803909271.4905875</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4179546798.979333</v>
+        <v>3907732001.650997</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09434108167800732</v>
+        <v>0.08099609747302827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03714910261954224</v>
+        <v>0.02955226661186946</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2089773453.766786</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5367398747.204505</v>
+        <v>3944953879.39938</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1563995444780868</v>
+        <v>0.1767152163323401</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03059941423655169</v>
+        <v>0.03510540043698487</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>23</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2683699505.546117</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4391924666.125252</v>
+        <v>5894085749.798466</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1399346134180127</v>
+        <v>0.1471802686345976</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02390537109019729</v>
+        <v>0.03064838578947923</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>27</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2195962328.157425</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4403724079.566647</v>
+        <v>4159719162.206296</v>
       </c>
       <c r="F66" t="n">
-        <v>0.102068769908963</v>
+        <v>0.1234068005333571</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04631245103018419</v>
+        <v>0.04545320064335731</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>21</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2201862034.890526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2806885895.535213</v>
+        <v>2332547813.530783</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0687615681752539</v>
+        <v>0.08504579960652942</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03639122612388739</v>
+        <v>0.05062684625056883</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1403442982.306293</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3735804006.882801</v>
+        <v>4522982429.752497</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1440469521031401</v>
+        <v>0.1559617351956988</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04912266305945723</v>
+        <v>0.04170308850489551</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1867901983.127285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2336571874.342527</v>
+        <v>1949119746.980912</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1271460763566323</v>
+        <v>0.1362546886024454</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04570569194853316</v>
+        <v>0.03798147455349436</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1168285985.548419</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2897727497.514467</v>
+        <v>2272490524.954914</v>
       </c>
       <c r="F70" t="n">
-        <v>0.071902648734977</v>
+        <v>0.07441489613355604</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04349925244181105</v>
+        <v>0.03042179322877424</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>21</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1448863719.051083</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3958364554.338398</v>
+        <v>4386175854.384005</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1294413018136722</v>
+        <v>0.1547734543516314</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02749078993003161</v>
+        <v>0.02217735379083197</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1979182305.019725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1592768775.855498</v>
+        <v>1696403677.855071</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1035671385004321</v>
+        <v>0.07640424658480126</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0322334818767193</v>
+        <v>0.04419070601508766</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>796384399.8682375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2530016837.918741</v>
+        <v>2580251348.640354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1005399905558475</v>
+        <v>0.08746972223317294</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03349195165156038</v>
+        <v>0.03467631989901804</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>28</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1265008457.879153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2646602829.662113</v>
+        <v>3151271864.336415</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1176992927627841</v>
+        <v>0.1162496798760877</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02831665380903645</v>
+        <v>0.03098019525021219</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1323301510.691315</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2179912543.739112</v>
+        <v>1840324703.110265</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1448821081551298</v>
+        <v>0.1498765068154395</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02759949407280247</v>
+        <v>0.03789848156689867</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1089956219.130203</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4246188343.680659</v>
+        <v>3795605334.633514</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09642346968732235</v>
+        <v>0.07733192803469424</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03240364730287955</v>
+        <v>0.02550541899876918</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2123094166.798624</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2013760665.166622</v>
+        <v>1521123248.977694</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1644549276887044</v>
+        <v>0.1158160256876126</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02604782131198786</v>
+        <v>0.02712928864206121</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1006880396.018171</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3390909769.452034</v>
+        <v>4677810549.055978</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088633734989111</v>
+        <v>0.1308606111347922</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04378219398337912</v>
+        <v>0.03851016240722645</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1695454893.967255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1793342012.632342</v>
+        <v>1640002375.04944</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1181546925727748</v>
+        <v>0.1233238986123511</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03882909208538878</v>
+        <v>0.03713781196858078</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>896671091.7432008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4155890577.108996</v>
+        <v>4414775986.716885</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08813656778058357</v>
+        <v>0.08589645835202342</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02725077811198731</v>
+        <v>0.02364704821159844</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2077945295.688525</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3910734083.428102</v>
+        <v>3159525198.242865</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1251786937537068</v>
+        <v>0.1259724412499288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02188914316893324</v>
+        <v>0.02101004492512997</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1955367001.460157</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3438415071.810301</v>
+        <v>4657476838.188046</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1505012854505499</v>
+        <v>0.2007737007073029</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02642422839967062</v>
+        <v>0.02526743244259283</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1719207606.945191</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1828070890.344264</v>
+        <v>2276395695.818906</v>
       </c>
       <c r="F83" t="n">
-        <v>0.155899618258875</v>
+        <v>0.1296358583209053</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03913908334981779</v>
+        <v>0.03258923151396057</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>914035409.0145082</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2087343742.376924</v>
+        <v>2206695535.469435</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07475144374875868</v>
+        <v>0.08798167956281595</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03284876741121415</v>
+        <v>0.05244342160491968</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1043671863.302582</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2271842142.582493</v>
+        <v>2895353447.395842</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1786797222497003</v>
+        <v>0.1476109516472765</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05413400264478508</v>
+        <v>0.03702821774669428</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>28</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1135921050.951424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2048410132.624038</v>
+        <v>2558355617.188398</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1206624552075861</v>
+        <v>0.1579210004697729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01954043296796809</v>
+        <v>0.02503470591725972</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1024205100.548946</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1363030781.883132</v>
+        <v>1014554623.515536</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1894330891871414</v>
+        <v>0.1398566975794864</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03930435252402471</v>
+        <v>0.03565622396126516</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>681515488.2311709</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3019782190.496995</v>
+        <v>2825566107.264115</v>
       </c>
       <c r="F88" t="n">
-        <v>0.170423926404738</v>
+        <v>0.129218632345817</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02564116170634249</v>
+        <v>0.02581045632264601</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1509891127.545641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2122801605.043164</v>
+        <v>2438061094.071908</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1338104249662324</v>
+        <v>0.1090287489656403</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0332319689432265</v>
+        <v>0.03329679846604591</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>25</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1061400904.829663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1992684076.184328</v>
+        <v>1813030536.501084</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09354402417503284</v>
+        <v>0.09430670460862819</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05607020846260693</v>
+        <v>0.05288631593611502</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>996342106.8787261</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1365191509.002867</v>
+        <v>1424581230.760535</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1190622643407202</v>
+        <v>0.1196758461316818</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05511255569727014</v>
+        <v>0.04028398008069031</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>682595811.2681148</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2290458028.502332</v>
+        <v>2820367781.857131</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1042429067969528</v>
+        <v>0.07946061697370016</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0384779348081204</v>
+        <v>0.04467691969129136</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1145228982.272618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5007841378.94965</v>
+        <v>3510256277.54592</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0998040553623383</v>
+        <v>0.1423390706527816</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03327308468493825</v>
+        <v>0.0463198782309556</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>22</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2503920624.847766</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2255964846.235929</v>
+        <v>1811159886.642324</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1644973578670539</v>
+        <v>0.1133062265211532</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02919207286878981</v>
+        <v>0.03070680787959023</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1127982454.690957</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2355917011.517955</v>
+        <v>2433411464.103512</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1263468097540698</v>
+        <v>0.09634542192979041</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05144755561725619</v>
+        <v>0.03485082824666801</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1177958552.239098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1932733651.361165</v>
+        <v>2221888121.149432</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1366352676058258</v>
+        <v>0.1001200462067467</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04404858151764911</v>
+        <v>0.0401961660240384</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>966366819.7444082</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4771224355.468805</v>
+        <v>3794518861.610954</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1500407774272009</v>
+        <v>0.1309630713750969</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02212187460483459</v>
+        <v>0.02478359109436144</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>24</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2385612296.048761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3936721396.105348</v>
+        <v>3449343121.919827</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1162565195902508</v>
+        <v>0.1032153740457436</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03182557113907067</v>
+        <v>0.02677571318316819</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>19</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1968360746.156515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2391136927.041923</v>
+        <v>3148021398.876961</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09750985319295467</v>
+        <v>0.1362562436641504</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02817992867585076</v>
+        <v>0.02675890722656954</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1195568405.247624</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4246131479.240551</v>
+        <v>4710908955.895658</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1752505881017045</v>
+        <v>0.1658257986541265</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0244611422716229</v>
+        <v>0.02180536629731712</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>22</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2123065829.821154</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3492678617.75639</v>
+        <v>3609707776.908389</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2168184066200753</v>
+        <v>0.2103697775366476</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03931532319035926</v>
+        <v>0.040385552166807</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>32</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1746339462.981194</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_74.xlsx
+++ b/output/fit_clients/fit_round_74.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2024837427.250217</v>
+        <v>1527315277.054793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09412577765765032</v>
+        <v>0.0926517996303476</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02995927713170906</v>
+        <v>0.04195915832392395</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2355030247.019138</v>
+        <v>1885059257.714895</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1391862552396328</v>
+        <v>0.12069175845013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0379927241565906</v>
+        <v>0.03522073187088616</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3831400866.487614</v>
+        <v>4416890916.660295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.123065504951857</v>
+        <v>0.1118134641331228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02420054505528228</v>
+        <v>0.03492409832548338</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3412657430.529426</v>
+        <v>3244149393.675631</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07759463043435685</v>
+        <v>0.1087326074584146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03932202437986765</v>
+        <v>0.04098526068262005</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1972238941.162512</v>
+        <v>1752867991.309924</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1235570581263236</v>
+        <v>0.1132627903077896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05497831437246513</v>
+        <v>0.03955020433511007</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2186286678.302148</v>
+        <v>2320736541.053535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08241796004625629</v>
+        <v>0.1020190796989662</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0299292229472968</v>
+        <v>0.04436363645763383</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2640297527.747862</v>
+        <v>3801981637.456248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.195194284056638</v>
+        <v>0.1455093882939125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02945505883007098</v>
+        <v>0.0267255928313901</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1410731030.441311</v>
+        <v>1737417958.802896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1503158678833336</v>
+        <v>0.1968644992576283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03187430805606842</v>
+        <v>0.03383489226802536</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4415806111.375518</v>
+        <v>4995577643.477234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1509912460677198</v>
+        <v>0.1611837961483875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03478117796234816</v>
+        <v>0.03390146962988569</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2891553782.290128</v>
+        <v>3228387271.806033</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1415099141054118</v>
+        <v>0.1354376253465561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04452250983085258</v>
+        <v>0.04887239559555098</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2859136383.177714</v>
+        <v>2393653368.75232</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1788817838483558</v>
+        <v>0.1820549947514853</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0343291601346686</v>
+        <v>0.03669663495781392</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5334932569.290601</v>
+        <v>3419827071.933228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06531488243812088</v>
+        <v>0.08549538248659459</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0308839348240078</v>
+        <v>0.02920662772517472</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3382489697.931636</v>
+        <v>3657163469.565238</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1557960801730582</v>
+        <v>0.1596591112520942</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04375583875414782</v>
+        <v>0.04284595792394572</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1700431030.415257</v>
+        <v>1178900695.36281</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07757781948564955</v>
+        <v>0.09054904043782029</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03592872576373166</v>
+        <v>0.03497104605397165</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2734966924.639862</v>
+        <v>1834276929.130744</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09472863242767816</v>
+        <v>0.0761098191087098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04999804934856088</v>
+        <v>0.0366268577474204</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4692110327.35605</v>
+        <v>4529051025.15244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1667404478825456</v>
+        <v>0.1645195080913738</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03684008587641695</v>
+        <v>0.04158875918168973</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3614461282.91299</v>
+        <v>3529693714.086403</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1288956361141906</v>
+        <v>0.1679885878991966</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02238975608709505</v>
+        <v>0.02188107668502037</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1008432952.957601</v>
+        <v>1093661484.88273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1319476687848576</v>
+        <v>0.1168155207669584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01747815817137261</v>
+        <v>0.02057983672357724</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2798795188.742155</v>
+        <v>2530503855.714226</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1477146800100064</v>
+        <v>0.115417457885165</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02292461120174442</v>
+        <v>0.01991317164335902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2479274827.7291</v>
+        <v>1939753644.133011</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06330344666713028</v>
+        <v>0.09788477454812682</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02969098867556346</v>
+        <v>0.04297207125822408</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2711890156.770639</v>
+        <v>3196955837.688595</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1390651387096709</v>
+        <v>0.1406908483906068</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04147800081800709</v>
+        <v>0.05684286017423663</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>968193888.0305055</v>
+        <v>1557233793.098896</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1237318960314734</v>
+        <v>0.1179061488822898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05235615146874877</v>
+        <v>0.04266338312837743</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2935068189.63546</v>
+        <v>3144889458.760121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09570675603882328</v>
+        <v>0.09166246647350745</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02285922402352022</v>
+        <v>0.02375306278713578</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>975846702.5856212</v>
+        <v>1240868721.572926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08624908663770502</v>
+        <v>0.1104488451870292</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01955440026910968</v>
+        <v>0.02689929680282535</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1430527391.289958</v>
+        <v>1060729000.650478</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08008348870640375</v>
+        <v>0.1241148088823522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02760132218871877</v>
+        <v>0.02449873432520771</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4148892858.353953</v>
+        <v>4159760501.101737</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1475635611833086</v>
+        <v>0.1192094839507993</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02618274952209244</v>
+        <v>0.02534165127115051</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3165023952.205612</v>
+        <v>3099027781.320855</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1388170774598577</v>
+        <v>0.1373981649425518</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04900052353722115</v>
+        <v>0.03764001477982657</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4067962695.350007</v>
+        <v>4146761129.639609</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1048264847355308</v>
+        <v>0.1476183555628063</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0308244307579092</v>
+        <v>0.04209410448121896</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1932334407.410491</v>
+        <v>1831909014.25667</v>
       </c>
       <c r="F30" t="n">
-        <v>0.085128065042025</v>
+        <v>0.1136896682461127</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03784954763336999</v>
+        <v>0.03823837185261271</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1097227657.101278</v>
+        <v>937497640.25971</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1057215784885393</v>
+        <v>0.1095560476744721</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03413666499809933</v>
+        <v>0.04399528274327096</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1872207070.480369</v>
+        <v>1432893022.805519</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0997088469812495</v>
+        <v>0.1059674095938131</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02396763187472052</v>
+        <v>0.02517767680848376</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2963124435.752085</v>
+        <v>3043356672.503355</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1302531970477381</v>
+        <v>0.1732219495019948</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04574508880439319</v>
+        <v>0.05882980985837982</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1479171416.394699</v>
+        <v>1248789430.534632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1016593927797822</v>
+        <v>0.1045618386070077</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01858234423141327</v>
+        <v>0.02366722999485008</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>919575480.315506</v>
+        <v>942403689.9981134</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08990248580580509</v>
+        <v>0.09317324042120546</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04049498918637558</v>
+        <v>0.04443578466848131</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2205303305.936431</v>
+        <v>3106453543.202269</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1545520630272505</v>
+        <v>0.1366422369395793</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01986267469872636</v>
+        <v>0.0211417104631016</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2535570886.214352</v>
+        <v>2408328316.256016</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09588793673142061</v>
+        <v>0.09318404752256464</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03450262858678151</v>
+        <v>0.04037719374218612</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1412533173.500399</v>
+        <v>1550325377.755605</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0871553282310846</v>
+        <v>0.07555137652041652</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02777472259206358</v>
+        <v>0.03186254045693267</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1814348476.547298</v>
+        <v>1341340936.588041</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1498492482148452</v>
+        <v>0.1588759027102625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02013183125837962</v>
+        <v>0.02553085901009442</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1349405220.949803</v>
+        <v>1449761712.773744</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1145343193185524</v>
+        <v>0.1429659418668396</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04739167744361972</v>
+        <v>0.05394684782222016</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2253374088.277474</v>
+        <v>2568124825.003558</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1192225966992487</v>
+        <v>0.1562749544399119</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03210897961502946</v>
+        <v>0.0372388119637343</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2817212710.69306</v>
+        <v>3065164582.702375</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09734993481214911</v>
+        <v>0.08854108753446807</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04379454876969643</v>
+        <v>0.03566199635476237</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1892518656.408794</v>
+        <v>2410897280.053671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1487902603309459</v>
+        <v>0.1554651788518835</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02316888941208795</v>
+        <v>0.01560612208636928</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2078745194.021055</v>
+        <v>1753903636.332422</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09635956090003225</v>
+        <v>0.07758390973781082</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03415723518191046</v>
+        <v>0.03308590635719227</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1879473860.302397</v>
+        <v>1737254892.794462</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1551133297588464</v>
+        <v>0.1691457149082192</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03505624332885902</v>
+        <v>0.04154666043489584</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4245155187.871292</v>
+        <v>4552732044.641338</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1776619294875096</v>
+        <v>0.1709357505826674</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06024539499195508</v>
+        <v>0.05355568442486927</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4216715812.767884</v>
+        <v>4410457593.873027</v>
       </c>
       <c r="F47" t="n">
-        <v>0.196127925873837</v>
+        <v>0.197971032486797</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04147091215910702</v>
+        <v>0.03791336452722175</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4267401802.883951</v>
+        <v>4254062098.437544</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07966712127354536</v>
+        <v>0.07435263963694942</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0314691616912665</v>
+        <v>0.03681166601313238</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1237170779.902668</v>
+        <v>1385737771.819894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1598347467009603</v>
+        <v>0.1561663622240405</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03245262365854693</v>
+        <v>0.03469625463295577</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3975760461.613235</v>
+        <v>4137687768.511942</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1707794118678573</v>
+        <v>0.1239828204706863</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03391107272948703</v>
+        <v>0.04745766857816325</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>939814084.0699011</v>
+        <v>1145257347.328852</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1340181410144691</v>
+        <v>0.1656212630981859</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03505435960930592</v>
+        <v>0.03667347228213672</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4950214662.966714</v>
+        <v>5254783420.223567</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08415915779763962</v>
+        <v>0.110842528669246</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05094205899554468</v>
+        <v>0.04519941802715102</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3049597865.859425</v>
+        <v>2954065940.206774</v>
       </c>
       <c r="F53" t="n">
-        <v>0.170240642582638</v>
+        <v>0.1962495840473323</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02989073891971587</v>
+        <v>0.02695031273910232</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3029658068.364182</v>
+        <v>3778931138.942562</v>
       </c>
       <c r="F54" t="n">
-        <v>0.136092756227041</v>
+        <v>0.1146588824429277</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04727058885614714</v>
+        <v>0.03659779284671923</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4655566708.67445</v>
+        <v>4635635148.644503</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1356065672386383</v>
+        <v>0.1866061109823426</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03160833666466011</v>
+        <v>0.03024214101305987</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1432728388.801237</v>
+        <v>1664904264.458127</v>
       </c>
       <c r="F56" t="n">
-        <v>0.164317991149003</v>
+        <v>0.1072942721063204</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04375151414638499</v>
+        <v>0.03811797819553944</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3556637550.188221</v>
+        <v>3860232889.730285</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1521505343053504</v>
+        <v>0.153141698372209</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02682322117303422</v>
+        <v>0.02046595428623064</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1533009629.901197</v>
+        <v>1485492998.86996</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1612435451469404</v>
+        <v>0.1481375534074117</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03984175427506114</v>
+        <v>0.03803439372412226</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4256884773.039424</v>
+        <v>3270762182.501343</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1176935104188</v>
+        <v>0.1008539449210442</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03497816589123035</v>
+        <v>0.04451737791595476</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3552283785.733326</v>
+        <v>3135885311.122162</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1369695632978796</v>
+        <v>0.1996543961281306</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02312841923331114</v>
+        <v>0.03233886849228598</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3122979812.85697</v>
+        <v>2287284042.770498</v>
       </c>
       <c r="F61" t="n">
-        <v>0.17823468986651</v>
+        <v>0.1327885818848701</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02382223608728878</v>
+        <v>0.02889357880014914</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1854792804.66025</v>
+        <v>1696882769.450429</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1621862933475897</v>
+        <v>0.1764560903325548</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04634830374343892</v>
+        <v>0.03989451412756613</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3907732001.650997</v>
+        <v>5306814996.085847</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08099609747302827</v>
+        <v>0.1000707659470564</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02955226661186946</v>
+        <v>0.0372046783839098</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3944953879.39938</v>
+        <v>4281076098.827702</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1767152163323401</v>
+        <v>0.1851461430069761</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03510540043698487</v>
+        <v>0.02246628421851446</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5894085749.798466</v>
+        <v>5495947706.066021</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1471802686345976</v>
+        <v>0.1458852670782848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03064838578947923</v>
+        <v>0.02873435615240067</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4159719162.206296</v>
+        <v>5006551065.747976</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1234068005333571</v>
+        <v>0.1529663091368283</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04545320064335731</v>
+        <v>0.03614578255603339</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2332547813.530783</v>
+        <v>3511682689.776718</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08504579960652942</v>
+        <v>0.0909834086861905</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05062684625056883</v>
+        <v>0.04577246277427833</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4522982429.752497</v>
+        <v>3909304229.143808</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1559617351956988</v>
+        <v>0.1395232534617568</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04170308850489551</v>
+        <v>0.04975837264367194</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1949119746.980912</v>
+        <v>1643173117.02541</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1362546886024454</v>
+        <v>0.1339783276975665</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03798147455349436</v>
+        <v>0.05018689830227455</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2272490524.954914</v>
+        <v>2400961382.812715</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07441489613355604</v>
+        <v>0.0742485244076761</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03042179322877424</v>
+        <v>0.03085695942526584</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4386175854.384005</v>
+        <v>3793629808.380353</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1547734543516314</v>
+        <v>0.1151085990705114</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02217735379083197</v>
+        <v>0.02207148303834775</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1696403677.855071</v>
+        <v>2025749160.808882</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07640424658480126</v>
+        <v>0.09044194931767828</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04419070601508766</v>
+        <v>0.05108897949394214</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2580251348.640354</v>
+        <v>2664181194.486849</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08746972223317294</v>
+        <v>0.07369954485123802</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03467631989901804</v>
+        <v>0.03257596176686026</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3151271864.336415</v>
+        <v>3278854375.093768</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1162496798760877</v>
+        <v>0.1211268289869247</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03098019525021219</v>
+        <v>0.02889114920524208</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1840324703.110265</v>
+        <v>2288891403.225445</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1498765068154395</v>
+        <v>0.1099166563013062</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03789848156689867</v>
+        <v>0.03671170077227424</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3795605334.633514</v>
+        <v>3568555595.962172</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07733192803469424</v>
+        <v>0.09048921593861366</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02550541899876918</v>
+        <v>0.02195564877849865</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1521123248.977694</v>
+        <v>1449788634.302676</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1158160256876126</v>
+        <v>0.1628288114991115</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02712928864206121</v>
+        <v>0.02384793156645334</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4677810549.055978</v>
+        <v>4110515174.715517</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1308606111347922</v>
+        <v>0.09148570062630493</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03851016240722645</v>
+        <v>0.05639613823531626</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1640002375.04944</v>
+        <v>1169615257.261678</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1233238986123511</v>
+        <v>0.1215306271442044</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03713781196858078</v>
+        <v>0.03867318251623594</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4414775986.716885</v>
+        <v>3424465000.465809</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08589645835202342</v>
+        <v>0.09377705159390276</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02364704821159844</v>
+        <v>0.02717228513252945</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3159525198.242865</v>
+        <v>5130215916.810993</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1259724412499288</v>
+        <v>0.09661164024405855</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02101004492512997</v>
+        <v>0.0275760688365065</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4657476838.188046</v>
+        <v>4887300216.518833</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2007737007073029</v>
+        <v>0.1636674709275157</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02526743244259283</v>
+        <v>0.02010111384611784</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2276395695.818906</v>
+        <v>1902068047.713488</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1296358583209053</v>
+        <v>0.1573462718443895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03258923151396057</v>
+        <v>0.03107663925650478</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2206695535.469435</v>
+        <v>2433311288.302025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08798167956281595</v>
+        <v>0.09099627497357919</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05244342160491968</v>
+        <v>0.03649542439016652</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2895353447.395842</v>
+        <v>2783394361.653287</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1476109516472765</v>
+        <v>0.1676137301005174</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03702821774669428</v>
+        <v>0.04924818727084065</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2558355617.188398</v>
+        <v>2510202614.289408</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1579210004697729</v>
+        <v>0.1232148744167555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02503470591725972</v>
+        <v>0.02518320975102769</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1014554623.515536</v>
+        <v>1481138953.376025</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1398566975794864</v>
+        <v>0.1553448396462882</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03565622396126516</v>
+        <v>0.03893723628235021</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2825566107.264115</v>
+        <v>3006636285.949865</v>
       </c>
       <c r="F88" t="n">
-        <v>0.129218632345817</v>
+        <v>0.1422520156120459</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02581045632264601</v>
+        <v>0.02961700788890106</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2438061094.071908</v>
+        <v>2882601530.94606</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1090287489656403</v>
+        <v>0.1161620071991764</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03329679846604591</v>
+        <v>0.04087204504631689</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1813030536.501084</v>
+        <v>1979492167.809026</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09430670460862819</v>
+        <v>0.1222609876708076</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05288631593611502</v>
+        <v>0.03825509018667961</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1424581230.760535</v>
+        <v>1732087213.077169</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1196758461316818</v>
+        <v>0.1357780216159418</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04028398008069031</v>
+        <v>0.04785292721080936</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2820367781.857131</v>
+        <v>2867565034.445785</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07946061697370016</v>
+        <v>0.09737188576828303</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04467691969129136</v>
+        <v>0.04711842971430702</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3510256277.54592</v>
+        <v>3735030386.031961</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1423390706527816</v>
+        <v>0.124685408954529</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0463198782309556</v>
+        <v>0.03968265595682887</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1811159886.642324</v>
+        <v>2269313182.571929</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1133062265211532</v>
+        <v>0.1345984473602295</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03070680787959023</v>
+        <v>0.0268227434012513</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2433411464.103512</v>
+        <v>2459293007.46285</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09634542192979041</v>
+        <v>0.09489602948044801</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03485082824666801</v>
+        <v>0.04069215639733582</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2221888121.149432</v>
+        <v>2283498611.878521</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1001200462067467</v>
+        <v>0.1233298137543023</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0401961660240384</v>
+        <v>0.02983982130775491</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3794518861.610954</v>
+        <v>4311992496.305024</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1309630713750969</v>
+        <v>0.1449212815779732</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02478359109436144</v>
+        <v>0.02248880961993574</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3449343121.919827</v>
+        <v>2676376171.727691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1032153740457436</v>
+        <v>0.1263145085750289</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02677571318316819</v>
+        <v>0.02732348857992536</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3148021398.876961</v>
+        <v>2964683236.896582</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1362562436641504</v>
+        <v>0.1095902001160353</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02675890722656954</v>
+        <v>0.03135875121810144</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4710908955.895658</v>
+        <v>3917143394.368859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1658257986541265</v>
+        <v>0.1152169884584499</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02180536629731712</v>
+        <v>0.02805289671211287</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3609707776.908389</v>
+        <v>3564926510.111051</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2103697775366476</v>
+        <v>0.1442089784206673</v>
       </c>
       <c r="G101" t="n">
-        <v>0.040385552166807</v>
+        <v>0.05570950699144078</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_74.xlsx
+++ b/output/fit_clients/fit_round_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1527315277.054793</v>
+        <v>1520028054.465664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0926517996303476</v>
+        <v>0.09085367302321874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04195915832392395</v>
+        <v>0.03984045531598093</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1885059257.714895</v>
+        <v>2432756378.04965</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12069175845013</v>
+        <v>0.1474667264126719</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03522073187088616</v>
+        <v>0.03624183429164457</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4416890916.660295</v>
+        <v>3352669556.927335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1118134641331228</v>
+        <v>0.1168035945236563</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03492409832548338</v>
+        <v>0.02860129477054737</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>135.7400759764537</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3244149393.675631</v>
+        <v>2943966673.411112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1087326074584146</v>
+        <v>0.09691384499901846</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04098526068262005</v>
+        <v>0.04327195708342683</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>72</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1752867991.309924</v>
+        <v>1921109615.157446</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132627903077896</v>
+        <v>0.1345452160014287</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03955020433511007</v>
+        <v>0.05325167736427025</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2320736541.053535</v>
+        <v>2255309383.857047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1020190796989662</v>
+        <v>0.06499249250778845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04436363645763383</v>
+        <v>0.04954540753085074</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3801981637.456248</v>
+        <v>3941060412.730439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1455093882939125</v>
+        <v>0.1463634103150351</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0267255928313901</v>
+        <v>0.03260660888594037</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>73</v>
+      </c>
+      <c r="K8" t="n">
+        <v>178.7308593059396</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1737417958.802896</v>
+        <v>1454549034.193593</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1968644992576283</v>
+        <v>0.1391594245338026</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03383489226802536</v>
+        <v>0.03077736452272951</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4995577643.477234</v>
+        <v>3851238282.120516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1611837961483875</v>
+        <v>0.1710055908049608</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03390146962988569</v>
+        <v>0.03568215112517225</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>68</v>
+      </c>
+      <c r="J10" t="n">
+        <v>74</v>
+      </c>
+      <c r="K10" t="n">
+        <v>199.3850144830378</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3228387271.806033</v>
+        <v>2920392179.611106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1354376253465561</v>
+        <v>0.1564197458636331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04887239559555098</v>
+        <v>0.04851097745428658</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>73</v>
+      </c>
+      <c r="K11" t="n">
+        <v>112.9630920637939</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2393653368.75232</v>
+        <v>2897842705.038321</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1820549947514853</v>
+        <v>0.1779399757116588</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03669663495781392</v>
+        <v>0.04662958340323715</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3419827071.933228</v>
+        <v>3896792306.561834</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08549538248659459</v>
+        <v>0.09915320011372364</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02920662772517472</v>
+        <v>0.02543292997628389</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>38</v>
+      </c>
+      <c r="J13" t="n">
+        <v>73</v>
+      </c>
+      <c r="K13" t="n">
+        <v>179.4701154310537</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3657163469.565238</v>
+        <v>3617470565.565688</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1596591112520942</v>
+        <v>0.1686940172117007</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04284595792394572</v>
+        <v>0.03121194379293643</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>74</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1178900695.36281</v>
+        <v>1328198702.223695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09054904043782029</v>
+        <v>0.0820413689135879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03497104605397165</v>
+        <v>0.04280484689250569</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1834276929.130744</v>
+        <v>2339123253.256741</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0761098191087098</v>
+        <v>0.105942575926689</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0366268577474204</v>
+        <v>0.04566470597026812</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4529051025.15244</v>
+        <v>3969990350.331363</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1645195080913738</v>
+        <v>0.1605212301518603</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04158875918168973</v>
+        <v>0.04244456795214013</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>74</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3529693714.086403</v>
+        <v>2588435197.1836</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1679885878991966</v>
+        <v>0.1131335427214261</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02188107668502037</v>
+        <v>0.02397559112661901</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1093661484.88273</v>
+        <v>1235070686.587615</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1168155207669584</v>
+        <v>0.1593366666206847</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02057983672357724</v>
+        <v>0.02589087168097921</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2530503855.714226</v>
+        <v>1793933112.194829</v>
       </c>
       <c r="F20" t="n">
-        <v>0.115417457885165</v>
+        <v>0.09974539386442063</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01991317164335902</v>
+        <v>0.02829161252199231</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1939753644.133011</v>
+        <v>2240461387.584439</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09788477454812682</v>
+        <v>0.07621251174931504</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04297207125822408</v>
+        <v>0.0452257013513171</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3196955837.688595</v>
+        <v>2752416009.252482</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1406908483906068</v>
+        <v>0.1250866004549765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05684286017423663</v>
+        <v>0.03742955102784833</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>72</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1557233793.098896</v>
+        <v>1365936057.182015</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1179061488822898</v>
+        <v>0.1280970140496815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04266338312837743</v>
+        <v>0.03362780928735674</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3144889458.760121</v>
+        <v>3148654575.061397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09166246647350745</v>
+        <v>0.1278685707727958</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02375306278713578</v>
+        <v>0.03012743435676549</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>72</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1240868721.572926</v>
+        <v>1250909258.588186</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1104488451870292</v>
+        <v>0.1033963412942198</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02689929680282535</v>
+        <v>0.02627189352512201</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1060729000.650478</v>
+        <v>1245773003.999171</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1241148088823522</v>
+        <v>0.0775123525499519</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02449873432520771</v>
+        <v>0.03811776125206393</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4159760501.101737</v>
+        <v>3498885981.091169</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1192094839507993</v>
+        <v>0.1362737443909725</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02534165127115051</v>
+        <v>0.02252236425291205</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>29</v>
+      </c>
+      <c r="J27" t="n">
+        <v>73</v>
+      </c>
+      <c r="K27" t="n">
+        <v>121.8773739944365</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3099027781.320855</v>
+        <v>3480798369.958058</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1373981649425518</v>
+        <v>0.0981201478077357</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03764001477982657</v>
+        <v>0.04051535876402902</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" t="n">
+        <v>148.7406953918114</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4146761129.639609</v>
+        <v>5681073322.879506</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1476183555628063</v>
+        <v>0.0990692968182314</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04209410448121896</v>
+        <v>0.03968179418422599</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>68</v>
+      </c>
+      <c r="J29" t="n">
+        <v>74</v>
+      </c>
+      <c r="K29" t="n">
+        <v>211.1314737625517</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1831909014.25667</v>
+        <v>2156996385.648633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1136896682461127</v>
+        <v>0.1095853066789871</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03823837185261271</v>
+        <v>0.02816671288820609</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>937497640.25971</v>
+        <v>1064432770.636286</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1095560476744721</v>
+        <v>0.09912075880736217</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04399528274327096</v>
+        <v>0.03710707679899261</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1432893022.805519</v>
+        <v>1258424762.760301</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1059674095938131</v>
+        <v>0.1200104677816824</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02517767680848376</v>
+        <v>0.02439361276376592</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3043356672.503355</v>
+        <v>2199847140.084255</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1732219495019948</v>
+        <v>0.1417291203030122</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05882980985837982</v>
+        <v>0.04631599749843365</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1248789430.534632</v>
+        <v>1236305091.870277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1045618386070077</v>
+        <v>0.1082704744894279</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02366722999485008</v>
+        <v>0.02597622128538922</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>942403689.9981134</v>
+        <v>1194181525.574143</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09317324042120546</v>
+        <v>0.106543840980557</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04443578466848131</v>
+        <v>0.04218344030377261</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3106453543.202269</v>
+        <v>2794704422.728742</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1366422369395793</v>
+        <v>0.1296926476287391</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0211417104631016</v>
+        <v>0.02285169295328992</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2408328316.256016</v>
+        <v>2738230479.376625</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09318404752256464</v>
+        <v>0.08225636125736745</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04037719374218612</v>
+        <v>0.03421100598236009</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1550325377.755605</v>
+        <v>1494082972.068399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07555137652041652</v>
+        <v>0.08763541377863854</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03186254045693267</v>
+        <v>0.02904470876135367</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1341340936.588041</v>
+        <v>1356885381.546953</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1588759027102625</v>
+        <v>0.1218577898204797</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02553085901009442</v>
+        <v>0.03184057278357835</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1449761712.773744</v>
+        <v>1771768766.892191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1429659418668396</v>
+        <v>0.1607877523922278</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05394684782222016</v>
+        <v>0.04629413751706671</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2568124825.003558</v>
+        <v>2889117292.655837</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1562749544399119</v>
+        <v>0.120360460099114</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0372388119637343</v>
+        <v>0.04516045191174603</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3065164582.702375</v>
+        <v>3255735648.803947</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08854108753446807</v>
+        <v>0.1036253766107122</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03566199635476237</v>
+        <v>0.03119296101038577</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>28</v>
+      </c>
+      <c r="J42" t="n">
+        <v>72</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2410897280.053671</v>
+        <v>2117065878.482036</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1554651788518835</v>
+        <v>0.1745428147165812</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01560612208636928</v>
+        <v>0.01751676135270306</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1753903636.332422</v>
+        <v>2216249935.137942</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07758390973781082</v>
+        <v>0.09066990781326086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03308590635719227</v>
+        <v>0.03044903050750634</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1737254892.794462</v>
+        <v>2205596191.072023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1691457149082192</v>
+        <v>0.1915914581446696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04154666043489584</v>
+        <v>0.05133628425356551</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4552732044.641338</v>
+        <v>5711552624.408817</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1709357505826674</v>
+        <v>0.108718218287337</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05355568442486927</v>
+        <v>0.05519658100031398</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>43</v>
+      </c>
+      <c r="J46" t="n">
+        <v>74</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4410457593.873027</v>
+        <v>4215028826.54948</v>
       </c>
       <c r="F47" t="n">
-        <v>0.197971032486797</v>
+        <v>0.1775662950157591</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03791336452722175</v>
+        <v>0.05812953962473653</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>33</v>
+      </c>
+      <c r="J47" t="n">
+        <v>73</v>
+      </c>
+      <c r="K47" t="n">
+        <v>151.9919064541576</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4254062098.437544</v>
+        <v>4650280979.506694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07435263963694942</v>
+        <v>0.1054613390331013</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03681166601313238</v>
+        <v>0.03492595466609179</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>74</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1385737771.819894</v>
+        <v>1512492413.595725</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1561663622240405</v>
+        <v>0.1713837561637959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03469625463295577</v>
+        <v>0.0338800770949567</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4137687768.511942</v>
+        <v>4141640363.971605</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1239828204706863</v>
+        <v>0.1432341353216361</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04745766857816325</v>
+        <v>0.04512103166140007</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>74</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1145257347.328852</v>
+        <v>1220591510.965241</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1656212630981859</v>
+        <v>0.1406079264587212</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03667347228213672</v>
+        <v>0.0360091409081115</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5254783420.223567</v>
+        <v>4659871479.71194</v>
       </c>
       <c r="F52" t="n">
-        <v>0.110842528669246</v>
+        <v>0.0981985704749767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04519941802715102</v>
+        <v>0.05826937793329773</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>57</v>
+      </c>
+      <c r="J52" t="n">
+        <v>74</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2954065940.206774</v>
+        <v>3145633267.060949</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1962495840473323</v>
+        <v>0.1306600374760509</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02695031273910232</v>
+        <v>0.02564372427913069</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3778931138.942562</v>
+        <v>4570319238.3082</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1146588824429277</v>
+        <v>0.1658519124889433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03659779284671923</v>
+        <v>0.04359838073758973</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>33</v>
+      </c>
+      <c r="J54" t="n">
+        <v>74</v>
+      </c>
+      <c r="K54" t="n">
+        <v>180.9220341456639</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4635635148.644503</v>
+        <v>4470817666.85822</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1866061109823426</v>
+        <v>0.216624751666819</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03024214101305987</v>
+        <v>0.02559535437950161</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>34</v>
+      </c>
+      <c r="J55" t="n">
+        <v>74</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1664904264.458127</v>
+        <v>1505297176.650428</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1072942721063204</v>
+        <v>0.1187030394396177</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03811797819553944</v>
+        <v>0.05396331961549582</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3860232889.730285</v>
+        <v>3119533022.36382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.153141698372209</v>
+        <v>0.1330780761894624</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02046595428623064</v>
+        <v>0.01790388103127376</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27</v>
+      </c>
+      <c r="J57" t="n">
+        <v>73</v>
+      </c>
+      <c r="K57" t="n">
+        <v>112.1866439281948</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1485492998.86996</v>
+        <v>1600177587.337564</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1481375534074117</v>
+        <v>0.1954955324809136</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03803439372412226</v>
+        <v>0.03001072610097186</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3270762182.501343</v>
+        <v>4148980055.474425</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1008539449210442</v>
+        <v>0.1165037468305793</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04451737791595476</v>
+        <v>0.04988503254749701</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>36</v>
+      </c>
+      <c r="J59" t="n">
+        <v>73</v>
+      </c>
+      <c r="K59" t="n">
+        <v>161.5359062002281</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3135885311.122162</v>
+        <v>3241386565.322441</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1996543961281306</v>
+        <v>0.1842550974992503</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03233886849228598</v>
+        <v>0.03022706787477587</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>73</v>
+      </c>
+      <c r="K60" t="n">
+        <v>121.6989025100946</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2287284042.770498</v>
+        <v>2499372918.316727</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1327885818848701</v>
+        <v>0.1242366604791036</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02889357880014914</v>
+        <v>0.02328578994554606</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1696882769.450429</v>
+        <v>1902290628.633397</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1764560903325548</v>
+        <v>0.11834220588174</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03989451412756613</v>
+        <v>0.03838563073406233</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5306814996.085847</v>
+        <v>4577936258.553776</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1000707659470564</v>
+        <v>0.07687409932366426</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0372046783839098</v>
+        <v>0.03939924338056024</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>36</v>
+      </c>
+      <c r="J63" t="n">
+        <v>74</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4281076098.827702</v>
+        <v>5370120394.641992</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1851461430069761</v>
+        <v>0.1196644415298767</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02246628421851446</v>
+        <v>0.02341719911106555</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>36</v>
+      </c>
+      <c r="J64" t="n">
+        <v>74</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5495947706.066021</v>
+        <v>5417674944.697873</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1458852670782848</v>
+        <v>0.122138395880341</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02873435615240067</v>
+        <v>0.03067983395340288</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>58</v>
+      </c>
+      <c r="J65" t="n">
+        <v>74</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5006551065.747976</v>
+        <v>3759484795.579939</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1529663091368283</v>
+        <v>0.09832536472141924</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03614578255603339</v>
+        <v>0.04844392460583048</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>36</v>
+      </c>
+      <c r="J66" t="n">
+        <v>74</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3511682689.776718</v>
+        <v>2478753424.386258</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0909834086861905</v>
+        <v>0.07502746933613109</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04577246277427833</v>
+        <v>0.0339969783645088</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3909304229.143808</v>
+        <v>5269805589.120843</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1395232534617568</v>
+        <v>0.1342897991054452</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04975837264367194</v>
+        <v>0.05165968706210213</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>37</v>
+      </c>
+      <c r="J68" t="n">
+        <v>73</v>
+      </c>
+      <c r="K68" t="n">
+        <v>171.270303461855</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1643173117.02541</v>
+        <v>1702223182.555343</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1339783276975665</v>
+        <v>0.183140572038407</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05018689830227455</v>
+        <v>0.05758430784013498</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2400961382.812715</v>
+        <v>2314713975.484132</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0742485244076761</v>
+        <v>0.0962692521046961</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03085695942526584</v>
+        <v>0.03648116800316722</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3793629808.380353</v>
+        <v>5471615524.845562</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1151085990705114</v>
+        <v>0.1159007047424883</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02207148303834775</v>
+        <v>0.0291397515567001</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>61</v>
+      </c>
+      <c r="J71" t="n">
+        <v>74</v>
+      </c>
+      <c r="K71" t="n">
+        <v>186.6220556980431</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2025749160.808882</v>
+        <v>1876258872.973867</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09044194931767828</v>
+        <v>0.08083581829368566</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05108897949394214</v>
+        <v>0.05087391527961993</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2664181194.486849</v>
+        <v>2924193448.623865</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07369954485123802</v>
+        <v>0.08818752953569216</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03257596176686026</v>
+        <v>0.04057355347067808</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3278854375.093768</v>
+        <v>3430581144.585658</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1211268289869247</v>
+        <v>0.1708155715416982</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02889114920524208</v>
+        <v>0.02373155969190769</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>74</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2288891403.225445</v>
+        <v>2060563181.020601</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1099166563013062</v>
+        <v>0.1253857897031491</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03671170077227424</v>
+        <v>0.03590438464682059</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3568555595.962172</v>
+        <v>5104557951.833766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09048921593861366</v>
+        <v>0.1116836468168186</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02195564877849865</v>
+        <v>0.03370857164070544</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>34</v>
+      </c>
+      <c r="J76" t="n">
+        <v>73</v>
+      </c>
+      <c r="K76" t="n">
+        <v>148.4123344397903</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1449788634.302676</v>
+        <v>2092240016.993574</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1628288114991115</v>
+        <v>0.1593599058274642</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02384793156645334</v>
+        <v>0.02127249919876636</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4110515174.715517</v>
+        <v>4476258936.713623</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09148570062630493</v>
+        <v>0.09069154760031536</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05639613823531626</v>
+        <v>0.04181177751849163</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>74</v>
+      </c>
+      <c r="K78" t="n">
+        <v>189.6493022848152</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1169615257.261678</v>
+        <v>1299207692.871013</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1215306271442044</v>
+        <v>0.1526543904150485</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03867318251623594</v>
+        <v>0.03601731765141122</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3424465000.465809</v>
+        <v>5164920939.336458</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09377705159390276</v>
+        <v>0.1041800240408385</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02717228513252945</v>
+        <v>0.03665991300622746</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>36</v>
+      </c>
+      <c r="J80" t="n">
+        <v>73</v>
+      </c>
+      <c r="K80" t="n">
+        <v>141.9513977427472</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5130215916.810993</v>
+        <v>3690315946.167479</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09661164024405855</v>
+        <v>0.09379466073389807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0275760688365065</v>
+        <v>0.02454581185505433</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>33</v>
+      </c>
+      <c r="J81" t="n">
+        <v>74</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4887300216.518833</v>
+        <v>3794303739.720813</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1636674709275157</v>
+        <v>0.190263292289116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02010111384611784</v>
+        <v>0.02463277121918761</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>46</v>
+      </c>
+      <c r="J82" t="n">
+        <v>73</v>
+      </c>
+      <c r="K82" t="n">
+        <v>180.5103936474449</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1902068047.713488</v>
+        <v>1897585206.855563</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1573462718443895</v>
+        <v>0.1023030464912241</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03107663925650478</v>
+        <v>0.03776718638584821</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2433311288.302025</v>
+        <v>2017624957.665594</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09099627497357919</v>
+        <v>0.08736835705910288</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03649542439016652</v>
+        <v>0.03614265247512038</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2783394361.653287</v>
+        <v>3264939546.731275</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1676137301005174</v>
+        <v>0.1337644816397059</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04924818727084065</v>
+        <v>0.04508019318123019</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2510202614.289408</v>
+        <v>1890519445.613967</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1232148744167555</v>
+        <v>0.1362383210216155</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02518320975102769</v>
+        <v>0.01792749704715769</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1481138953.376025</v>
+        <v>919484066.2580386</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1553448396462882</v>
+        <v>0.1425737308073754</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03893723628235021</v>
+        <v>0.0368249167924994</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3006636285.949865</v>
+        <v>3037927121.055227</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1422520156120459</v>
+        <v>0.1166115746328388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02961700788890106</v>
+        <v>0.03391708952744021</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2882601530.94606</v>
+        <v>2240472629.108481</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1161620071991764</v>
+        <v>0.1561057436699453</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04087204504631689</v>
+        <v>0.03628969964198723</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1979492167.809026</v>
+        <v>1646204120.965198</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1222609876708076</v>
+        <v>0.1372099846903337</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03825509018667961</v>
+        <v>0.03755976388236262</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1732087213.077169</v>
+        <v>1550215261.843955</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1357780216159418</v>
+        <v>0.1794639708267751</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04785292721080936</v>
+        <v>0.0475584711990742</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2867565034.445785</v>
+        <v>2056636865.529756</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09737188576828303</v>
+        <v>0.07900551308660748</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04711842971430702</v>
+        <v>0.03271401856981748</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3735030386.031961</v>
+        <v>4811496336.895471</v>
       </c>
       <c r="F93" t="n">
-        <v>0.124685408954529</v>
+        <v>0.1046094707997232</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03968265595682887</v>
+        <v>0.04308456304516724</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>33</v>
+      </c>
+      <c r="J93" t="n">
+        <v>74</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2269313182.571929</v>
+        <v>1735342126.901748</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1345984473602295</v>
+        <v>0.1552267980262739</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0268227434012513</v>
+        <v>0.04303031778954507</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2459293007.46285</v>
+        <v>2733398584.507096</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09489602948044801</v>
+        <v>0.1119763622618453</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04069215639733582</v>
+        <v>0.04201081113565478</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2283498611.878521</v>
+        <v>2206142981.188687</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1233298137543023</v>
+        <v>0.08753422698114161</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02983982130775491</v>
+        <v>0.04216752000023048</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4311992496.305024</v>
+        <v>4929036850.761664</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1449212815779732</v>
+        <v>0.1498973374568559</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02248880961993574</v>
+        <v>0.02319079133096362</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>35</v>
+      </c>
+      <c r="J97" t="n">
+        <v>74</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2676376171.727691</v>
+        <v>2664394580.23516</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1263145085750289</v>
+        <v>0.1000106293619145</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02732348857992536</v>
+        <v>0.02480935779650701</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2964683236.896582</v>
+        <v>2918110270.956785</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1095902001160353</v>
+        <v>0.1169364745787903</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03135875121810144</v>
+        <v>0.02175044192229146</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3917143394.368859</v>
+        <v>3490830456.276848</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1152169884584499</v>
+        <v>0.1148677755551571</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02805289671211287</v>
+        <v>0.02638252515724101</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31</v>
+      </c>
+      <c r="J100" t="n">
+        <v>73</v>
+      </c>
+      <c r="K100" t="n">
+        <v>136.5022957439099</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3564926510.111051</v>
+        <v>2278907587.483079</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1442089784206673</v>
+        <v>0.1771925849855407</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05570950699144078</v>
+        <v>0.05673369289425162</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
